--- a/Docs/Tablas Lab 4.xlsx
+++ b/Docs/Tablas Lab 4.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uniandes.sharepoint.com/sites/ISIS1225/Documentos compartidos/General/202110/Laboratorios/Lab 04 - Ordenamientos Iterativos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4883f1138b381820/Escritorio/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{A25BB2A9-7879-4ABF-A93E-5BD797619927}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{3E197636-5D23-49AC-AB0F-C814FF421F77}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{0304805A-06AB-42A9-ADD5-CD0AF10CDE66}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CA3E2D13-5B66-4FBB-8D4E-0850B7DA7DFF}"/>
   <bookViews>
-    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="15586" activeTab="5" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{D82936D8-D2C9-4EB2-9CBC-3665F65B95FD}"/>
   </bookViews>
   <sheets>
     <sheet name="Datos Lab4" sheetId="1" r:id="rId1"/>
@@ -84,7 +84,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,7 +130,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -142,6 +142,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -652,7 +655,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -664,34 +667,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>453.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>1781.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>7190.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>28083.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>106906.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>453796.875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>1570265.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -751,8 +745,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -820,7 +813,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -832,34 +825,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>494.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1981.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>7921.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>31114.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>121148.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>523109.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>2198796.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -987,7 +971,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -999,34 +983,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>71.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>312.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>721.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>1531.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>3818.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>9302.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>22703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>36390.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1554,21 +1538,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1579,34 +1548,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30921.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>253421.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>2029562.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>16426765.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1666,8 +1617,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -1703,39 +1653,24 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Datos Lab4'!$C$15:$C$24</c:f>
+              <c:f>'Datos Lab4'!$A$15:$A$24</c:f>
               <c:numCache>
-                <c:formatCode>0.00</c:formatCode>
+                <c:formatCode>General</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>16000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1747,34 +1682,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>27765.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>223140.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>1797421.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1889,21 +1803,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1914,34 +1813,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>1640.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>33000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>173265.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>798406.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2414,8 +2298,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -2483,7 +2366,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2495,34 +2378,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>453.13</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>1781.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>7190.63</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>28083.33</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>106906.3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>453796.875</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>1570265.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,21 +2512,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2663,34 +2522,16 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>50</c:v>
+                  <c:v>30921.875</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>60</c:v>
+                  <c:v>253421.875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>70</c:v>
+                  <c:v>2029562.5</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>140</c:v>
+                  <c:v>16426765.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3153,8 +2994,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3222,7 +3062,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3234,34 +3074,25 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>1</c:v>
+                  <c:v>494.79</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>1981.25</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3</c:v>
+                  <c:v>7921.88</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5</c:v>
+                  <c:v>31114.58</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8</c:v>
+                  <c:v>121148.4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>13</c:v>
+                  <c:v>523109.375</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>89</c:v>
+                  <c:v>2198796.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3377,21 +3208,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3402,34 +3218,13 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>2</c:v>
+                  <c:v>27765.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>223140.625</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>178</c:v>
+                  <c:v>1797421.875</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3892,8 +3687,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -3961,7 +3755,7 @@
                   <c:v>256000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>512000</c:v>
+                  <c:v>375942</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3973,34 +3767,34 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>4</c:v>
+                  <c:v>56.25</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>19</c:v>
+                  <c:v>71.88</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>29</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39</c:v>
+                  <c:v>312.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>721.88</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>59</c:v>
+                  <c:v>1531.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>69</c:v>
+                  <c:v>3818.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>79</c:v>
+                  <c:v>9302.08</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>89</c:v>
+                  <c:v>22703</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>99</c:v>
+                  <c:v>36390.625</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4060,8 +3854,7 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="poly"/>
-            <c:order val="2"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="1"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
@@ -4116,21 +3909,6 @@
                 <c:pt idx="4">
                   <c:v>16000</c:v>
                 </c:pt>
-                <c:pt idx="5">
-                  <c:v>32000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>128000</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>256000</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>512000</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4141,34 +3919,19 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>35</c:v>
+                  <c:v>1640.625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>78</c:v>
+                  <c:v>6875</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>88</c:v>
+                  <c:v>33000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>98</c:v>
+                  <c:v>173265.625</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>158</c:v>
+                  <c:v>798406.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7286,7 +7049,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{BF2A59F4-6CD8-490D-818C-7B3BB3F2B140}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7297,7 +7060,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{0D09CF8B-80E2-4734-A9D4-9F6060F1BA3D}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="115" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7308,7 +7071,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{3D4D373F-B89D-476A-916E-D6B8B50B0AC1}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView zoomScale="85" workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7319,7 +7082,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{662C0436-FCD4-45AD-AA7D-093158D92847}">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7330,7 +7093,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{39C68510-AE01-4761-A7FB-5F1B76E923F7}">
   <sheetPr/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="117" workbookViewId="0" zoomToFit="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -7341,7 +7104,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9305925" cy="6076950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7374,7 +7137,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="9301370" cy="6071152"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7407,7 +7170,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="9312088" cy="6084794"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7440,7 +7203,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8659519" cy="6284148"/>
+    <xdr:ext cx="9305925" cy="6076950"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7473,7 +7236,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="8662051" cy="6288490"/>
+    <xdr:ext cx="9304587" cy="6077107"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
@@ -7827,19 +7590,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5B14742-4EBB-4241-AC8A-0E5F24F7BB7B}">
   <dimension ref="A1:D24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="H3:I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.1171875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.52734375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.76171875" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
@@ -7853,164 +7616,135 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>1000</v>
       </c>
       <c r="B2" s="4">
-        <v>10</v>
+        <v>453.13</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>494.79</v>
       </c>
       <c r="D2" s="4">
-        <v>4</v>
+        <v>56.25</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2000</v>
       </c>
       <c r="B3" s="4">
-        <v>20</v>
+        <v>1781.25</v>
       </c>
       <c r="C3" s="4">
-        <v>2</v>
+        <v>1981.25</v>
       </c>
       <c r="D3" s="4">
-        <f>D2+15</f>
-        <v>19</v>
+        <v>71.88</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>4000</v>
       </c>
       <c r="B4" s="4">
-        <v>30</v>
+        <v>7190.63</v>
       </c>
       <c r="C4" s="4">
-        <f>C3+C2</f>
-        <v>3</v>
+        <v>7921.88</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" ref="D4:D11" si="0">D3+10</f>
-        <v>29</v>
+        <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>8000</v>
       </c>
       <c r="B5" s="4">
-        <v>40</v>
+        <v>28083.33</v>
       </c>
       <c r="C5" s="4">
-        <f t="shared" ref="C5:C11" si="1">C4+C3</f>
-        <v>5</v>
+        <v>31114.58</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
-        <v>39</v>
+        <v>312.5</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>16000</v>
       </c>
       <c r="B6" s="4">
-        <v>50</v>
+        <v>106906.3</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="1"/>
-        <v>8</v>
+      <c r="C6" s="5">
+        <v>121148.4</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
-        <v>49</v>
+        <v>721.88</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>32000</v>
       </c>
       <c r="B7" s="4">
-        <v>60</v>
+        <v>453796.875</v>
       </c>
       <c r="C7" s="4">
-        <f t="shared" si="1"/>
-        <v>13</v>
+        <v>523109.375</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
-        <v>59</v>
+        <v>1531.25</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>64000</v>
       </c>
       <c r="B8" s="4">
-        <v>70</v>
+        <v>1570265.625</v>
       </c>
       <c r="C8" s="4">
-        <f t="shared" si="1"/>
-        <v>21</v>
+        <v>2198796.875</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
-        <v>69</v>
+        <v>3818.75</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>128000</v>
       </c>
-      <c r="B9" s="4">
-        <v>80</v>
-      </c>
-      <c r="C9" s="4">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
-        <v>79</v>
+        <v>9302.08</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>256000</v>
       </c>
-      <c r="B10" s="4">
-        <v>90</v>
-      </c>
-      <c r="C10" s="4">
-        <f t="shared" si="1"/>
-        <v>55</v>
-      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
-        <v>89</v>
+        <v>22703</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
-        <v>512000</v>
+        <v>375942</v>
       </c>
-      <c r="B11" s="4">
-        <v>100</v>
-      </c>
-      <c r="C11" s="4">
-        <f t="shared" si="1"/>
-        <v>89</v>
-      </c>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
-        <v>99</v>
+        <v>36390.625</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>0</v>
       </c>
@@ -8024,162 +7758,99 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>1000</v>
       </c>
       <c r="B15" s="4">
-        <v>50</v>
+        <v>30921.875</v>
       </c>
       <c r="C15" s="4">
-        <v>2</v>
+        <v>27765.625</v>
       </c>
       <c r="D15" s="4">
-        <v>35</v>
+        <v>1640.625</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>2000</v>
       </c>
       <c r="B16" s="4">
-        <v>60</v>
+        <v>253421.875</v>
       </c>
       <c r="C16" s="4">
-        <v>4</v>
+        <v>223140.625</v>
       </c>
       <c r="D16" s="4">
-        <f>D15+43</f>
-        <v>78</v>
+        <v>6875</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>4000</v>
       </c>
       <c r="B17" s="4">
-        <v>70</v>
+        <v>2029562.5</v>
       </c>
       <c r="C17" s="4">
-        <f t="shared" ref="C17:C24" si="2">C16+C15</f>
-        <v>6</v>
+        <v>1797421.875</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" ref="D17:D24" si="3">D16+10</f>
-        <v>88</v>
+        <v>33000</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>8000</v>
       </c>
       <c r="B18" s="4">
-        <v>80</v>
+        <v>16426765.625</v>
       </c>
-      <c r="C18" s="4">
-        <f t="shared" si="2"/>
-        <v>10</v>
-      </c>
+      <c r="C18" s="5"/>
       <c r="D18" s="4">
-        <f t="shared" si="3"/>
-        <v>98</v>
+        <v>173265.625</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>16000</v>
       </c>
-      <c r="B19" s="4">
-        <v>90</v>
-      </c>
-      <c r="C19" s="4">
-        <f t="shared" si="2"/>
-        <v>16</v>
-      </c>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
       <c r="D19" s="4">
-        <f t="shared" si="3"/>
-        <v>108</v>
+        <v>798406.25</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A20" s="1">
-        <v>32000</v>
-      </c>
-      <c r="B20" s="4">
-        <v>100</v>
-      </c>
-      <c r="C20" s="4">
-        <f t="shared" si="2"/>
-        <v>26</v>
-      </c>
-      <c r="D20" s="4">
-        <f t="shared" si="3"/>
-        <v>118</v>
-      </c>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A21" s="1">
-        <v>64000</v>
-      </c>
-      <c r="B21" s="4">
-        <v>110</v>
-      </c>
-      <c r="C21" s="4">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="D21" s="4">
-        <f t="shared" si="3"/>
-        <v>128</v>
-      </c>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A22" s="1">
-        <v>128000</v>
-      </c>
-      <c r="B22" s="4">
-        <v>120</v>
-      </c>
-      <c r="C22" s="4">
-        <f t="shared" si="2"/>
-        <v>68</v>
-      </c>
-      <c r="D22" s="4">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A23" s="1">
-        <v>256000</v>
-      </c>
-      <c r="B23" s="4">
-        <v>130</v>
-      </c>
-      <c r="C23" s="4">
-        <f t="shared" si="2"/>
-        <v>110</v>
-      </c>
-      <c r="D23" s="4">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.5">
-      <c r="A24" s="1">
-        <v>512000</v>
-      </c>
-      <c r="B24" s="4">
-        <v>140</v>
-      </c>
-      <c r="C24" s="4">
-        <f t="shared" si="2"/>
-        <v>178</v>
-      </c>
-      <c r="D24" s="4">
-        <f t="shared" si="3"/>
-        <v>158</v>
-      </c>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
